--- a/Output/Ex6-3-integer.xlsx
+++ b/Output/Ex6-3-integer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aggiemailusu-my.sharepoint.com/personal/joshua_timothy_ward_aggiemail_usu_edu/Documents/CourseWork/Fall 2020/CEE 5410 Water Systems Analysis/GitHub Respository/JTW_CEE5410_Repo/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1838893F-A317-41A1-8111-F1C6A3BFCFB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAF540C-5A6A-4222-AE0C-94A5610FAA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10523" xr2:uid="{B71124B6-A327-445D-9412-E8ABCA3E9BC1}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16875" windowHeight="10523" xr2:uid="{5ED97D76-51A8-4C2A-8E08-B9B93A39CBB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="15" r:id="rId1"/>
@@ -605,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4906F9A-A40F-4932-9C49-A841925B8E65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3925F78B-8D2B-4FDD-902C-3B2E08AEA2F6}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -920,30 +920,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="CapCost!A1" display="CapCost" xr:uid="{8DBEBA78-FDC7-41C7-B786-E45E38679432}"/>
-    <hyperlink ref="A3" location="Scalar!A1" display="COST" xr:uid="{36919280-3A8B-4F4E-BDEF-818AF4A9E3F1}"/>
-    <hyperlink ref="A4" location="I!A1" display="I" xr:uid="{2D10747C-6FD8-45ED-BC40-2F878B03089A}"/>
-    <hyperlink ref="A5" location="IntLowBnd!A1" display="IntLowBnd" xr:uid="{A5FFDF29-6D33-4248-89F2-06BE65C192B9}"/>
-    <hyperlink ref="A6" location="IntLowBound!A1" display="IntLowBound" xr:uid="{5ACF5FF7-AD65-4A42-8244-4725B9D27ECE}"/>
-    <hyperlink ref="A7" location="IntUpBnd!A1" display="IntUpBnd" xr:uid="{65B23CFE-BFFB-475C-859D-3D05E42223AA}"/>
-    <hyperlink ref="A8" location="IntUpBound!A1" display="IntUpBound" xr:uid="{EBE4E814-5C3B-4062-B48D-AD8FC7CA2830}"/>
-    <hyperlink ref="A9" location="MaxCap!A1" display="MaxCap" xr:uid="{DA31DCD8-2390-49FC-BDAF-E03DC9F01122}"/>
-    <hyperlink ref="A10" location="MaxCapacity!A1" display="MaxCapacity" xr:uid="{9C8D5630-BED2-4BAE-9741-528CCEC09E3D}"/>
-    <hyperlink ref="A11" location="Scalar!A1" display="MeetDemand" xr:uid="{56F7AF11-2B0D-42D0-A1BC-726F9DAC402F}"/>
-    <hyperlink ref="A12" location="MinReqUse!A1" display="MinReqUse" xr:uid="{DF30D7F2-F7EC-43B6-8FB9-C6B330032E28}"/>
-    <hyperlink ref="A13" location="MinUse!A1" display="MinUse" xr:uid="{662DD286-45A4-4741-B219-58306A2A614C}"/>
-    <hyperlink ref="A14" location="OpCost!A1" display="OpCost" xr:uid="{D881F257-2BDB-43D4-A467-5FF6EC0039B4}"/>
-    <hyperlink ref="A15" location="src!A1" display="src" xr:uid="{D8D300E3-B5C3-4109-A5C1-80A23D947280}"/>
-    <hyperlink ref="A16" location="Scalar!A1" display="TCOST" xr:uid="{43B2E6B2-8263-4DA3-8A1F-3A137134FAD3}"/>
-    <hyperlink ref="A17" location="Scalar!A1" display="TotDemand" xr:uid="{7D20B828-7AE0-486E-8572-B21B656091FF}"/>
-    <hyperlink ref="A18" location="X!A1" display="X" xr:uid="{F6C3D665-9413-4A20-8917-0AE775913DA1}"/>
+    <hyperlink ref="A2" location="CapCost!A1" display="CapCost" xr:uid="{39705892-EF5F-4336-B1E1-14C5787DDE5B}"/>
+    <hyperlink ref="A3" location="Scalar!A1" display="COST" xr:uid="{20A75EF7-5A91-4326-A909-396F9B1995DD}"/>
+    <hyperlink ref="A4" location="I!A1" display="I" xr:uid="{7F0FD455-AC27-4A80-A09C-246912AD8D3A}"/>
+    <hyperlink ref="A5" location="IntLowBnd!A1" display="IntLowBnd" xr:uid="{E0D03437-6826-4E5B-BFAB-360A72EE969E}"/>
+    <hyperlink ref="A6" location="IntLowBound!A1" display="IntLowBound" xr:uid="{FD9A8345-DA56-44F7-8604-8DA2C7BDE0A0}"/>
+    <hyperlink ref="A7" location="IntUpBnd!A1" display="IntUpBnd" xr:uid="{95155FB5-867B-4697-9129-222D7C85C2E6}"/>
+    <hyperlink ref="A8" location="IntUpBound!A1" display="IntUpBound" xr:uid="{068148DB-1E1F-443A-9357-A33365CA541F}"/>
+    <hyperlink ref="A9" location="MaxCap!A1" display="MaxCap" xr:uid="{D8336AC4-8ECF-4A7D-9FA1-60D50CBDC6F9}"/>
+    <hyperlink ref="A10" location="MaxCapacity!A1" display="MaxCapacity" xr:uid="{11DB6736-A37A-49C5-915B-9222C06BEE3A}"/>
+    <hyperlink ref="A11" location="Scalar!A1" display="MeetDemand" xr:uid="{69BE8A5A-6269-4275-8FF1-655855AC38BE}"/>
+    <hyperlink ref="A12" location="MinReqUse!A1" display="MinReqUse" xr:uid="{0EADFD85-2DF8-43BB-982F-8AFE4E77C888}"/>
+    <hyperlink ref="A13" location="MinUse!A1" display="MinUse" xr:uid="{ECDF9F8A-3AE4-4C8D-A9A3-779F6C4B61C4}"/>
+    <hyperlink ref="A14" location="OpCost!A1" display="OpCost" xr:uid="{F6899556-43E8-4480-99F7-07F5E184FCC7}"/>
+    <hyperlink ref="A15" location="src!A1" display="src" xr:uid="{8F0D44DA-919A-4BDA-B8F3-662B99F71CA5}"/>
+    <hyperlink ref="A16" location="Scalar!A1" display="TCOST" xr:uid="{B065C37D-41AC-4510-8467-A658A35B6477}"/>
+    <hyperlink ref="A17" location="Scalar!A1" display="TotDemand" xr:uid="{6A621322-EDFA-4C50-B36C-6E0A0D45DF3D}"/>
+    <hyperlink ref="A18" location="X!A1" display="X" xr:uid="{912C048F-DC78-4C86-AE9D-7FC34CCD7C85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA2302A-053B-4A7B-A523-43F19D5E45D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A62D678-0EE8-47E5-840A-78D2E6DC0F67}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -994,16 +994,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{D5F34E16-F0D3-4FF8-96E4-9B5FA024755A}"/>
+  <autoFilter ref="A3:B5" xr:uid="{F65A6556-8B45-4368-BBD7-E6E3E7353978}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6125CCAA-040A-47BA-B2C3-280F552850EC}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{471905EE-BF62-4ABF-89D2-DA193CF394D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C17F27-30F2-41E4-8E85-09C1509CAFA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2DEBBC-79A2-4D94-AD28-7163221DF6F8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1081,16 +1081,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{2F34EECD-98FE-46BF-8EF7-AF18C11583F2}"/>
+  <autoFilter ref="A3:E5" xr:uid="{938E8DBF-D67F-4539-A8FA-D65E1058F0AF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F78EC199-E166-4DB2-9B20-9586CF818B44}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{836E7E98-94C1-4B38-8D8C-21592B6FBD39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87818B1A-5C8D-492E-B9B6-BFBEA70272AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF6C99-C46B-4829-8961-358EC0FEACA8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1133,16 +1133,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B4" xr:uid="{30417382-0C23-4C2B-B649-B47C243ADC4F}"/>
+  <autoFilter ref="A3:B4" xr:uid="{42B859C9-8704-4B0C-B9D4-2B987F2EFE46}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DF33ECE7-437F-4379-9450-C430EE5FE08E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{77D5FBEC-89C1-4EDE-BB5A-79F9EC8635EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBB918A-0421-4967-BBBC-9850AD9FDD5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5708E49F-7698-4FBF-A363-769B92333321}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1193,16 +1193,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{8A1D203F-AC6E-4E55-A3C0-5677611C580C}"/>
+  <autoFilter ref="A3:B5" xr:uid="{93E7CCD7-633D-4BF3-B31A-90326E6E2B4F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{20E79A49-229A-4422-8114-004CE1A15542}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A1CC2FD5-6C44-44D4-ACFE-86D85E89D9D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297F2DCF-69D0-433C-A970-7EDBD7E66FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945A9C76-75E9-494B-8181-E6199A9DCD3D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1250,16 +1250,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{6EAEEA72-3CA5-44DD-B3E4-14DA97035D11}"/>
+  <autoFilter ref="A3:A5" xr:uid="{4EED6E22-4405-4D98-8863-DB5A22A4D492}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{83BE6DCA-591D-495F-9CCB-3059BCDB5B49}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{ABFB631E-3270-43C7-9885-A22026B90AC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA773F3-FB41-4733-A1DB-642AFD4CC317}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7142BC2-5814-4790-8BEB-0D7A3016CBA8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1337,16 +1337,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{11808E73-EFA7-4749-8B43-CECFB35EC6B2}"/>
+  <autoFilter ref="A3:E5" xr:uid="{D1752614-3C70-4BF9-9D63-7E03B4F0685E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{AB79F671-EC4F-4180-B39A-C6ACEE2235F7}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CC2773BD-037C-44CB-8F18-534853CE714F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E0DD18-0F6F-4854-9BAA-53D6440FD769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCE216C-3069-4ADC-84F5-6EAE36896120}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1482,14 +1482,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CCE7C8EB-5A56-423E-91B7-B0B5108E06CB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{674F920B-352C-43A9-BDAB-BB2CBCF15C75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7D6CE0-7628-4AF2-9FC6-B87E4FE7A44F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB7FA62-34AB-4BB7-B1E7-0846011F3733}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1540,16 +1540,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{65AE189E-4A3A-4C4E-8274-66EA3ADB4584}"/>
+  <autoFilter ref="A3:B5" xr:uid="{96A3A7B4-4475-4298-AACD-45DFBC42E16D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{34849F67-E759-4B9C-AC0D-4003D7193ECB}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2A311201-C4F8-49E0-ACCE-DBD40A16F38F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98510BBB-0EDB-4115-B38F-359E4A7D143C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B98AE8C-8570-4219-802D-C79027F2EF08}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1627,16 +1627,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{E0D2C984-5BD6-4325-8D42-0098861F1D99}"/>
+  <autoFilter ref="A3:E5" xr:uid="{51970535-7B83-47B4-A91B-0DC5727B6EAD}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{516D1267-19E0-44D4-8E17-77C95CEF228F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{46AA7173-82EB-4B71-AC8D-AC3A3A2AC645}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74829D9-186E-4C78-90E9-9F2BEC6C5944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0EF240-B481-45EE-A987-4FC9A49F11E0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1687,16 +1687,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{73412256-7664-40E5-BEB5-5482A0EA7C77}"/>
+  <autoFilter ref="A3:B5" xr:uid="{8C3D8283-86EA-48ED-AAA8-19FCAC40BEE0}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A5990510-F966-4295-8E4F-93C912D147DE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{85AB043E-93B8-48DC-A680-6A3F1111B875}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CF628C-54C2-4B02-8D5A-D8C53389BD78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B3CBA4-D16F-4216-A531-2FE86AD82779}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1774,16 +1774,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{A5E3A4F1-98A1-4415-A0E6-5F9C8C70233F}"/>
+  <autoFilter ref="A3:E5" xr:uid="{FAED8285-7010-468B-91EA-E64E756B706B}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2F36EE58-7014-4EA9-9F07-9912C6DA0547}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1335E331-F390-432C-A05C-8C3FA5542A15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA16967-690C-4156-9966-22FE521B1678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980F355D-E3B8-428D-A79D-16F93DCB4E28}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1834,16 +1834,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{622846A8-965D-480E-AA4A-C029573E4F2E}"/>
+  <autoFilter ref="A3:B5" xr:uid="{B6F48588-0F58-4A6F-A271-3B3E7855121E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{0EE96DE3-3772-44B2-9DB6-5F80CD881534}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2C669CB2-CC1B-46B8-955E-08D68D508838}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55B2978-6408-49B6-B2C1-6FAA3F62CC91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D08BCE8-FA86-42A9-AD2B-060B5F92BA0C}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1921,16 +1921,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{D089C05D-764A-47C3-BC26-C6B2A91595B8}"/>
+  <autoFilter ref="A3:E5" xr:uid="{D5B47166-8E9B-4334-9430-BE98FCE3A695}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FCFAE4D4-18F3-4649-A669-5972D1DC537F}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{86297596-9E5D-44CD-9D14-BD5A80B403A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AE09F6-614D-488E-B774-F018A81A0182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5B2CE1-22C9-4539-9508-95533DBBD39B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2008,9 +2008,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{D953DA0A-E758-4325-8763-4EF5F2ACACA5}"/>
+  <autoFilter ref="A3:E5" xr:uid="{B0FE1FE7-1D96-45D7-BAD5-B5219C4599CF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{529A00A8-5F0B-418A-B926-3C30C6C9912E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F50C0826-AEC0-4D1C-93A3-49DB67899EFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
